--- a/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B00BA40-672F-483D-9053-91D8720053EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07926DA-B55D-45C1-99B3-DA614A1A9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE83FAB4-2080-4DA9-A8BF-C18522596637}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9041BB33-E1E8-4449-B5EC-607BD8CF0512}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="256">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -278,31 +278,31 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -311,508 +311,496 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1230,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030283C3-D5F0-4E99-8F92-1F2123DCEA05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6B8C34-E99D-45B9-9A75-5CBAAA2A2411}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2761,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAE0066-E08E-4736-8B8B-4AFAC9E56B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E87683F-5313-48D6-BFB9-D9F9448EE1C5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3183,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3195,10 +3183,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3207,13 +3195,13 @@
         <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,10 +3216,10 @@
         <v>321153</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3246,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -3258,13 +3246,13 @@
         <v>657943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3320,13 @@
         <v>10898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3347,13 +3335,13 @@
         <v>21889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3362,13 +3350,13 @@
         <v>32787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,28 +3371,28 @@
         <v>653288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>599</v>
       </c>
       <c r="I14" s="7">
-        <v>645435</v>
+        <v>645436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>1211</v>
@@ -3413,13 +3401,13 @@
         <v>1298723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3434,7 @@
         <v>619</v>
       </c>
       <c r="I15" s="7">
-        <v>667324</v>
+        <v>667325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3487,13 +3475,13 @@
         <v>2994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3502,13 +3490,13 @@
         <v>19845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3517,13 +3505,13 @@
         <v>22839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3526,13 @@
         <v>209624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3553,13 +3541,13 @@
         <v>199746</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -3568,13 +3556,13 @@
         <v>409370</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3630,13 @@
         <v>2978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3657,13 +3645,13 @@
         <v>2848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3672,13 +3660,13 @@
         <v>5827</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3681,10 @@
         <v>271003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3708,10 +3696,10 @@
         <v>276292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3723,13 +3711,13 @@
         <v>547294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,10 +3788,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3812,13 +3800,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3830,10 +3818,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3839,10 @@
         <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -3863,13 +3851,13 @@
         <v>686701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -3881,10 +3869,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,10 +3943,10 @@
         <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3967,13 +3955,13 @@
         <v>24776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3982,13 +3970,13 @@
         <v>36121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,10 +3994,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4018,13 +4006,13 @@
         <v>796744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -4033,13 +4021,13 @@
         <v>1562371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4095,13 @@
         <v>38384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -4122,13 +4110,13 @@
         <v>82913</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4137,13 +4125,13 @@
         <v>121296</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4146,13 @@
         <v>3378531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>3203</v>
@@ -4173,13 +4161,13 @@
         <v>3457043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>6372</v>
@@ -4188,13 +4176,13 @@
         <v>6835574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,7 +4262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7286F7-A9BA-4384-A834-07004D0FE9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B621CF-1149-47D4-97B0-825AE3A3A206}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,7 +4279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4404,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4419,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4434,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4467,7 +4455,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4482,7 +4470,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4559,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4574,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4589,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4595,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4622,7 +4610,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4637,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4714,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4729,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4744,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4750,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4777,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4792,7 +4780,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4869,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4884,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4899,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4932,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4947,7 +4935,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5024,7 +5012,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5039,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5054,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5087,7 +5075,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5102,7 +5090,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5179,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5194,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5209,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5215,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5242,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5257,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5364,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5370,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5412,7 +5400,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5489,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5504,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5519,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5552,7 +5540,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5567,7 +5555,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5644,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5659,7 +5647,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5674,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5680,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5707,7 +5695,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5722,7 +5710,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5805,7 +5793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F1DB15-BFF3-4EFD-B5AA-B9C2B0EB171F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007AFBBF-171C-4C6C-868B-08CB60655303}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5822,7 +5810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5935,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5950,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5965,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,7 +5971,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5998,7 +5986,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6013,7 +6001,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6090,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6105,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6120,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6126,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6153,7 +6141,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6168,7 +6156,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6245,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6260,7 +6248,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6293,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6308,7 +6296,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6415,7 +6403,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6430,7 +6418,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6451,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6478,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6555,7 +6543,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6570,7 +6558,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6585,7 +6573,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6618,7 +6606,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6633,7 +6621,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6710,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6725,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6740,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,7 +6746,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6773,7 +6761,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6788,7 +6776,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6880,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6928,7 +6916,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -7020,7 +7008,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7035,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7050,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7056,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -7083,7 +7071,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -7098,7 +7086,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -7190,7 +7178,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7238,7 +7226,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07926DA-B55D-45C1-99B3-DA614A1A9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B0B7EB-8DE7-4C91-95C4-FA9D3ABE89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9041BB33-E1E8-4449-B5EC-607BD8CF0512}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFCDF3FE-ED0F-474E-8584-FDE74EA80CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="260">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -278,495 +278,513 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,91%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
@@ -782,13 +800,7 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1218,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6B8C34-E99D-45B9-9A75-5CBAAA2A2411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A18313-864F-4DBF-8A5C-788DB1A8D956}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2749,7 +2761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E87683F-5313-48D6-BFB9-D9F9448EE1C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0067BCF-1F3B-4EAB-9101-71A2B75BB247}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3031,7 +3043,7 @@
         <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3040,13 +3052,13 @@
         <v>10706</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,10 +3073,10 @@
         <v>501223</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3079,10 +3091,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -3091,13 +3103,13 @@
         <v>1016557</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3177,13 @@
         <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3183,10 +3195,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3195,13 +3207,13 @@
         <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,10 +3228,10 @@
         <v>321153</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3323,10 +3335,10 @@
         <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3335,13 +3347,13 @@
         <v>21889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3350,13 +3362,13 @@
         <v>32787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,28 +3383,28 @@
         <v>653288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>599</v>
       </c>
       <c r="I14" s="7">
-        <v>645436</v>
+        <v>645435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>1211</v>
@@ -3401,13 +3413,13 @@
         <v>1298723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3446,7 @@
         <v>619</v>
       </c>
       <c r="I15" s="7">
-        <v>667325</v>
+        <v>667324</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3475,13 +3487,13 @@
         <v>2994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3490,13 +3502,13 @@
         <v>19845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3505,13 +3517,13 @@
         <v>22839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3538,13 @@
         <v>209624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3791,7 +3803,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3800,13 +3812,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3818,10 +3830,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,10 +3851,10 @@
         <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -3851,13 +3863,13 @@
         <v>686701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -3869,10 +3881,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,10 +3955,10 @@
         <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3955,13 +3967,13 @@
         <v>24776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3970,13 +3982,13 @@
         <v>36121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,10 +4006,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4006,13 +4018,13 @@
         <v>796744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -4021,13 +4033,13 @@
         <v>1562371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4107,13 @@
         <v>38384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -4110,13 +4122,13 @@
         <v>82913</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4125,13 +4137,13 @@
         <v>121296</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4158,13 @@
         <v>3378531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>3203</v>
@@ -4173,7 +4185,7 @@
         <v>6372</v>
       </c>
       <c r="N29" s="7">
-        <v>6835574</v>
+        <v>6835575</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>187</v>
@@ -4224,7 +4236,7 @@
         <v>6482</v>
       </c>
       <c r="N30" s="7">
-        <v>6956870</v>
+        <v>6956871</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4262,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B621CF-1149-47D4-97B0-825AE3A3A206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFBD38C-875D-4C98-AFE1-52D4E0076AB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4547,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4562,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4577,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4607,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4610,7 +4622,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4625,7 +4637,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4702,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4717,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4732,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4762,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4765,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4780,7 +4792,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4857,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4872,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4887,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4917,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4920,7 +4932,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4935,7 +4947,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5012,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5027,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5042,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,7 +5072,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5090,7 +5102,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5167,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5182,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5197,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5221,13 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5230,7 +5242,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5245,7 +5257,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5260,7 +5272,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5322,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5352,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5400,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5477,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5492,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5507,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,7 +5537,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5540,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5632,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5647,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5662,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5695,7 +5707,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5710,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5793,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007AFBBF-171C-4C6C-868B-08CB60655303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEBCED4-549D-4B4E-91A5-83C272D5B4A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5810,7 +5822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5923,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5938,7 +5950,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5953,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5998,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6001,7 +6013,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6078,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6093,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6108,7 +6120,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6138,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6141,7 +6153,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6156,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6233,7 +6245,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6248,7 +6260,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6281,7 +6293,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6296,7 +6308,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6403,7 +6415,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6418,7 +6430,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6466,7 +6478,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6543,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6558,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6573,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6603,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6606,7 +6618,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6621,7 +6633,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6698,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6713,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6728,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,7 +6758,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6761,7 +6773,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6868,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6916,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -7008,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7023,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7038,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,7 +7068,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -7071,7 +7083,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -7086,7 +7098,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -7178,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7226,7 +7238,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B0B7EB-8DE7-4C91-95C4-FA9D3ABE89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86144B2D-9D85-49EC-9584-E5322B4FE662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFCDF3FE-ED0F-474E-8584-FDE74EA80CFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E17265D-E5C1-47A8-A022-D02D2C439D02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -278,444 +278,450 @@
     <t>0,85%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
@@ -806,13 +812,7 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
     <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A18313-864F-4DBF-8A5C-788DB1A8D956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3DF84E-F04B-4627-BAAB-43894F20278A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2761,7 +2761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0067BCF-1F3B-4EAB-9101-71A2B75BB247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CF8026-300F-493B-8898-EEC246C00A93}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3043,7 +3043,7 @@
         <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3052,13 +3052,13 @@
         <v>10706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,10 +3073,10 @@
         <v>501223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3091,10 +3091,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -3103,13 +3103,13 @@
         <v>1016557</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3207,13 +3207,13 @@
         <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,10 +3228,10 @@
         <v>321153</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3246,10 +3246,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -3258,13 +3258,13 @@
         <v>657943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3332,13 @@
         <v>10898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3347,13 +3347,13 @@
         <v>21889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3362,13 +3362,13 @@
         <v>32787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>653288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>599</v>
@@ -3398,13 +3398,13 @@
         <v>645435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>1211</v>
@@ -3413,13 +3413,13 @@
         <v>1298723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3487,13 @@
         <v>2994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3502,13 +3502,13 @@
         <v>19845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3517,13 +3517,13 @@
         <v>22839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>209624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3553,13 +3553,13 @@
         <v>199746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -3568,13 +3568,13 @@
         <v>409370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3642,13 @@
         <v>2978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3657,13 +3657,13 @@
         <v>2848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>5827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3693,10 @@
         <v>271003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3708,10 +3708,10 @@
         <v>276292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3723,13 +3723,13 @@
         <v>547294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,10 +3800,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3812,13 +3812,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3830,10 +3830,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3851,10 @@
         <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -3863,13 +3863,13 @@
         <v>686701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -3881,10 +3881,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,10 +3955,10 @@
         <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3967,13 +3967,13 @@
         <v>24776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3982,13 +3982,13 @@
         <v>36121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,10 +4006,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4018,13 +4018,13 @@
         <v>796744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -4033,13 +4033,13 @@
         <v>1562371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4107,13 @@
         <v>38384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -4122,13 +4122,13 @@
         <v>82913</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4137,13 +4137,13 @@
         <v>121296</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4158,13 @@
         <v>3378531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>3203</v>
@@ -4173,28 +4173,28 @@
         <v>3457043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>6372</v>
       </c>
       <c r="N29" s="7">
-        <v>6835575</v>
+        <v>6835574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4236,7 @@
         <v>6482</v>
       </c>
       <c r="N30" s="7">
-        <v>6956871</v>
+        <v>6956870</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4274,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFBD38C-875D-4C98-AFE1-52D4E0076AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69809E4-0AF9-4A28-8A63-9801B33B4ED7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4404,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4467,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4482,7 +4482,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4559,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4622,7 +4622,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4637,7 +4637,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4714,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4762,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4777,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4792,7 +4792,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4869,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4932,7 +4932,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4947,7 +4947,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5024,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5087,7 +5087,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5102,7 +5102,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5179,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5242,7 +5242,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5257,7 +5257,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5272,7 +5272,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5334,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5412,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5489,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5519,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5537,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5552,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5567,7 +5567,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5644,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5707,7 +5707,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5722,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5805,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEBCED4-549D-4B4E-91A5-83C272D5B4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A00F1-A37B-4A09-BC46-9B2757DA148B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5822,7 +5822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5935,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,7 +5983,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5998,7 +5998,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6013,7 +6013,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6090,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6138,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6153,7 +6153,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6168,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6245,7 +6245,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6308,7 +6308,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6415,7 +6415,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6478,7 +6478,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6603,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6618,7 +6618,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6633,7 +6633,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6710,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,7 +6758,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6773,7 +6773,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6788,7 +6788,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6880,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -7020,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -7083,7 +7083,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -7098,7 +7098,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86144B2D-9D85-49EC-9584-E5322B4FE662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{339931DE-C063-4155-865D-B25B69FF77BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E17265D-E5C1-47A8-A022-D02D2C439D02}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6ACFFACF-C8C8-47B2-8BB9-43CDDC1443E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="271">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -272,7 +272,58 @@
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -293,9 +344,6 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
@@ -311,9 +359,6 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
     <t>99,56%</t>
   </si>
   <si>
@@ -353,309 +398,303 @@
     <t>98,28%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
     <t>98,85%</t>
   </si>
   <si>
@@ -695,13 +734,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -1230,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3DF84E-F04B-4627-BAAB-43894F20278A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1100C6C-FAAB-4E37-AF9D-54C5C63F3E43}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2761,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CF8026-300F-493B-8898-EEC246C00A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D7DEB-E229-4589-B5D5-3406AE1F1500}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2879,43 +2912,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6626</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12899</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19525</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,43 +2963,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>283577</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="I5" s="7">
+        <v>266451</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>510</v>
+      </c>
+      <c r="N5" s="7">
+        <v>550029</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,43 +3014,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>279350</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="N6" s="7">
+        <v>569554</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3073,13 @@
         <v>4304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3040,10 +3091,10 @@
         <v>51</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3052,10 +3103,10 @@
         <v>10706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>84</v>
@@ -3073,10 +3124,10 @@
         <v>501223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3091,10 +3142,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -3103,13 +3154,13 @@
         <v>1016557</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3228,13 @@
         <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3195,10 +3246,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3207,13 +3258,13 @@
         <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,10 +3279,10 @@
         <v>321153</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3246,10 +3297,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -3258,13 +3309,13 @@
         <v>657943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3377,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>10898</v>
+        <v>4272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>21889</v>
+        <v>8990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>32787</v>
+        <v>13262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3428,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>612</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>653288</v>
+        <v>369710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>599</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>645435</v>
+        <v>378984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>1298723</v>
+        <v>748694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3443,10 +3494,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>667324</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3458,10 +3509,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1241</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1331510</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3487,13 +3538,13 @@
         <v>2994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3502,13 +3553,13 @@
         <v>19845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3517,13 +3568,13 @@
         <v>22839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,10 +3589,10 @@
         <v>209624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -3553,13 +3604,13 @@
         <v>199746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -3568,13 +3619,13 @@
         <v>409370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3693,13 @@
         <v>2978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3657,13 +3708,13 @@
         <v>2848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3672,13 +3723,13 @@
         <v>5827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3744,10 @@
         <v>271003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3708,10 +3759,10 @@
         <v>276292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3723,13 +3774,13 @@
         <v>547294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,10 +3851,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3812,13 +3863,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3830,10 +3881,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3902,10 @@
         <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -3863,10 +3914,10 @@
         <v>686701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>73</v>
@@ -3881,10 +3932,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,10 +4006,10 @@
         <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3967,13 +4018,13 @@
         <v>24776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3982,13 +4033,13 @@
         <v>36121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,10 +4057,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4018,13 +4069,13 @@
         <v>796744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -4033,13 +4084,13 @@
         <v>1562371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4158,13 @@
         <v>38384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -4122,13 +4173,13 @@
         <v>82913</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4137,10 +4188,10 @@
         <v>121296</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>84</v>
@@ -4158,13 +4209,13 @@
         <v>3378531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>3203</v>
@@ -4173,28 +4224,28 @@
         <v>3457043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>6372</v>
       </c>
       <c r="N29" s="7">
-        <v>6835574</v>
+        <v>6835575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4287,7 @@
         <v>6482</v>
       </c>
       <c r="N30" s="7">
-        <v>6956870</v>
+        <v>6956871</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4274,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69809E4-0AF9-4A28-8A63-9801B33B4ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16BEEBC-2826-4DF8-B30F-CA37BB27685E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4404,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4419,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4434,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4503,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4467,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4482,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4559,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4574,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4589,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4622,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4637,7 +4688,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4714,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4729,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4744,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4777,7 +4828,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4792,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4869,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4884,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4899,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4968,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4932,7 +4983,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4947,7 +4998,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5024,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5039,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5054,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5123,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5087,7 +5138,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5102,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5179,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5194,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5209,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5278,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5242,7 +5293,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5257,7 +5308,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5334,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5364,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5433,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5412,7 +5463,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5489,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5504,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5519,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5588,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5552,7 +5603,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5567,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5644,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5659,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5674,7 +5725,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5743,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5707,7 +5758,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5722,7 +5773,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5805,7 +5856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A00F1-A37B-4A09-BC46-9B2757DA148B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6133EE5E-CDDA-4709-AF6B-BA11C1B7A996}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5822,7 +5873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5935,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5950,7 +6001,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5965,7 +6016,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +6028,13 @@
         <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>88636</v>
+        <v>110075</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5992,13 +6043,13 @@
         <v>133</v>
       </c>
       <c r="I5" s="7">
-        <v>66717</v>
+        <v>73326</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6007,13 +6058,13 @@
         <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>155353</v>
+        <v>183401</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6028,7 +6079,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>88636</v>
+        <v>110075</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -6043,7 +6094,7 @@
         <v>133</v>
       </c>
       <c r="I6" s="7">
-        <v>66717</v>
+        <v>73326</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6058,7 +6109,7 @@
         <v>242</v>
       </c>
       <c r="N6" s="7">
-        <v>155353</v>
+        <v>183401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6090,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6105,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6120,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6183,13 @@
         <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>254112</v>
+        <v>261757</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6147,13 +6198,13 @@
         <v>230</v>
       </c>
       <c r="I8" s="7">
-        <v>195005</v>
+        <v>181751</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6162,13 +6213,13 @@
         <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>449117</v>
+        <v>443508</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6183,7 +6234,7 @@
         <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>254112</v>
+        <v>261757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6198,7 +6249,7 @@
         <v>230</v>
       </c>
       <c r="I9" s="7">
-        <v>195005</v>
+        <v>181751</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6213,7 +6264,7 @@
         <v>392</v>
       </c>
       <c r="N9" s="7">
-        <v>449117</v>
+        <v>443508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6245,7 +6296,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6260,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6287,13 +6338,13 @@
         <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>131461</v>
+        <v>131069</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6302,13 +6353,13 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>112621</v>
+        <v>106400</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6317,7 +6368,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>244082</v>
+        <v>237469</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -6338,7 +6389,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="7">
-        <v>131461</v>
+        <v>131069</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6353,7 +6404,7 @@
         <v>134</v>
       </c>
       <c r="I12" s="7">
-        <v>112621</v>
+        <v>106400</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6368,7 +6419,7 @@
         <v>259</v>
       </c>
       <c r="N12" s="7">
-        <v>244082</v>
+        <v>237469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6415,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6430,7 +6481,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,7 +6493,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>135809</v>
+        <v>133345</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -6457,13 +6508,13 @@
         <v>170</v>
       </c>
       <c r="I14" s="7">
-        <v>150057</v>
+        <v>162714</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6472,13 +6523,13 @@
         <v>276</v>
       </c>
       <c r="N14" s="7">
-        <v>285866</v>
+        <v>296059</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6493,7 +6544,7 @@
         <v>106</v>
       </c>
       <c r="D15" s="7">
-        <v>135809</v>
+        <v>133345</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6508,7 +6559,7 @@
         <v>170</v>
       </c>
       <c r="I15" s="7">
-        <v>150057</v>
+        <v>162714</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6523,7 +6574,7 @@
         <v>276</v>
       </c>
       <c r="N15" s="7">
-        <v>285866</v>
+        <v>296059</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6555,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6570,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6585,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6648,13 @@
         <v>135</v>
       </c>
       <c r="D17" s="7">
-        <v>101565</v>
+        <v>92236</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6612,13 +6663,13 @@
         <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>83375</v>
+        <v>74021</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6627,13 +6678,13 @@
         <v>294</v>
       </c>
       <c r="N17" s="7">
-        <v>184940</v>
+        <v>166257</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6648,7 +6699,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="7">
-        <v>101565</v>
+        <v>92236</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6663,7 +6714,7 @@
         <v>159</v>
       </c>
       <c r="I18" s="7">
-        <v>83375</v>
+        <v>74021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6678,7 +6729,7 @@
         <v>294</v>
       </c>
       <c r="N18" s="7">
-        <v>184940</v>
+        <v>166257</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6710,7 +6761,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6725,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6740,7 +6791,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6803,13 @@
         <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>113623</v>
+        <v>112140</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6767,13 +6818,13 @@
         <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>97452</v>
+        <v>90846</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6782,13 +6833,13 @@
         <v>248</v>
       </c>
       <c r="N20" s="7">
-        <v>211074</v>
+        <v>202986</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6803,7 +6854,7 @@
         <v>122</v>
       </c>
       <c r="D21" s="7">
-        <v>113623</v>
+        <v>112140</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6818,7 +6869,7 @@
         <v>126</v>
       </c>
       <c r="I21" s="7">
-        <v>97452</v>
+        <v>90846</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6833,7 +6884,7 @@
         <v>248</v>
       </c>
       <c r="N21" s="7">
-        <v>211074</v>
+        <v>202986</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6880,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6907,7 +6958,7 @@
         <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>243610</v>
+        <v>249097</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -6922,13 +6973,13 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>214131</v>
+        <v>200689</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -6937,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="N23" s="7">
-        <v>457741</v>
+        <v>449786</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -6958,7 +7009,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="7">
-        <v>243610</v>
+        <v>249097</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -6973,7 +7024,7 @@
         <v>278</v>
       </c>
       <c r="I24" s="7">
-        <v>214131</v>
+        <v>200689</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6988,7 +7039,7 @@
         <v>490</v>
       </c>
       <c r="N24" s="7">
-        <v>457741</v>
+        <v>449786</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -7020,7 +7071,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7035,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7050,7 +7101,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7113,13 @@
         <v>417</v>
       </c>
       <c r="D26" s="7">
-        <v>549657</v>
+        <v>664472</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -7077,13 +7128,13 @@
         <v>464</v>
       </c>
       <c r="I26" s="7">
-        <v>423551</v>
+        <v>345899</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -7092,13 +7143,13 @@
         <v>881</v>
       </c>
       <c r="N26" s="7">
-        <v>973207</v>
+        <v>1010371</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -7113,7 +7164,7 @@
         <v>417</v>
       </c>
       <c r="D27" s="7">
-        <v>549657</v>
+        <v>664472</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7128,7 +7179,7 @@
         <v>464</v>
       </c>
       <c r="I27" s="7">
-        <v>423551</v>
+        <v>345899</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7143,7 +7194,7 @@
         <v>881</v>
       </c>
       <c r="N27" s="7">
-        <v>973207</v>
+        <v>1010371</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7190,7 +7241,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7217,7 +7268,7 @@
         <v>1388</v>
       </c>
       <c r="D29" s="7">
-        <v>1618473</v>
+        <v>1754190</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -7232,13 +7283,13 @@
         <v>1694</v>
       </c>
       <c r="I29" s="7">
-        <v>1342908</v>
+        <v>1235646</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -7247,7 +7298,7 @@
         <v>3082</v>
       </c>
       <c r="N29" s="7">
-        <v>2961381</v>
+        <v>2989837</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -7268,7 +7319,7 @@
         <v>1388</v>
       </c>
       <c r="D30" s="7">
-        <v>1618473</v>
+        <v>1754190</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7283,7 +7334,7 @@
         <v>1694</v>
       </c>
       <c r="I30" s="7">
-        <v>1342908</v>
+        <v>1235646</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7298,7 +7349,7 @@
         <v>3082</v>
       </c>
       <c r="N30" s="7">
-        <v>2961381</v>
+        <v>2989837</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
